--- a/lib/CMRIT2025Leaderboard.xlsx
+++ b/lib/CMRIT2025Leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabya\Downloads\sample leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D8402-F46F-41F8-9227-B8D1388D108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F242C83D-F898-46EF-86AA-E81C5C54525F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
+    <workbookView xWindow="1600" yWindow="4540" windowWidth="19200" windowHeight="11170" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11583,9 +11583,6 @@
     <t>21r01ajyys</t>
   </si>
   <si>
-    <t>786</t>
-  </si>
-  <si>
     <t>CMRIT25_21R01A0590</t>
   </si>
   <si>
@@ -11644,6 +11641,9 @@
   </si>
   <si>
     <t>868</t>
+  </si>
+  <si>
+    <t>787</t>
   </si>
 </sst>
 </file>
@@ -12376,7 +12376,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3602</v>
+        <v>3754</v>
       </c>
       <c r="C19" t="s">
         <v>3665</v>
@@ -14199,13 +14199,13 @@
         <v>3602</v>
       </c>
       <c r="C110" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="D110" t="s">
         <v>3726</v>
       </c>
       <c r="E110" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="F110" t="s">
         <v>3083</v>
@@ -16279,7 +16279,7 @@
         <v>3802</v>
       </c>
       <c r="C214" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="D214" t="s">
         <v>2643</v>
@@ -21005,7 +21005,7 @@
         <v>2315</v>
       </c>
       <c r="E450" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="F450" t="s">
         <v>449</v>
@@ -23839,13 +23839,13 @@
         <v>3602</v>
       </c>
       <c r="C592" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="D592" t="s">
         <v>3602</v>
       </c>
       <c r="E592" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="F592" t="s">
         <v>2007</v>
@@ -24705,7 +24705,7 @@
         <v>3696</v>
       </c>
       <c r="E635" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="F635" t="s">
         <v>3602</v>
@@ -26039,16 +26039,16 @@
         <v>3845</v>
       </c>
       <c r="C702" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="D702" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="E702" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="F702" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.35">
@@ -26225,7 +26225,7 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="F711" t="s">
         <v>710</v>
@@ -28599,7 +28599,7 @@
         <v>2973</v>
       </c>
       <c r="C830" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="D830" t="s">
         <v>3245</v>
@@ -30042,7 +30042,7 @@
         <v>3716</v>
       </c>
       <c r="D902" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="E902" t="s">
         <v>3792</v>
@@ -31365,7 +31365,7 @@
         <v>2462</v>
       </c>
       <c r="E968" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="F968" t="s">
         <v>3275</v>
@@ -33459,16 +33459,16 @@
         <v>3848</v>
       </c>
       <c r="C1073" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="D1073" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="E1073" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="F1073" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.35">
@@ -34676,19 +34676,19 @@
         <v>3833</v>
       </c>
       <c r="B1135" t="s">
-        <v>3849</v>
+        <v>3869</v>
       </c>
       <c r="C1135" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="D1135" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="E1135" t="s">
+        <v>3867</v>
+      </c>
+      <c r="F1135" t="s">
         <v>3868</v>
-      </c>
-      <c r="F1135" t="s">
-        <v>3869</v>
       </c>
     </row>
   </sheetData>

--- a/lib/CMRIT2025Leaderboard.xlsx
+++ b/lib/CMRIT2025Leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabya\Downloads\sample leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6C4B7B-B3D3-447E-9F5C-151277C1E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7424265A-3250-442B-862F-3582661D3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
   </bookViews>
@@ -11979,8 +11979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDF3820-1ED2-4581-9EEB-4A4152BC0E3A}">
   <dimension ref="A1:F1133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1111" workbookViewId="0">
-      <selection activeCell="C1138" sqref="C1138"/>
+    <sheetView tabSelected="1" topLeftCell="A1108" workbookViewId="0">
+      <selection activeCell="B1135" sqref="B1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/lib/CMRIT2025Leaderboard.xlsx
+++ b/lib/CMRIT2025Leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabya\Downloads\sample leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7424265A-3250-442B-862F-3582661D3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8500E0-AD14-4C05-90B8-9FC61E061C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="11170" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6798" uniqueCount="3864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="3870">
   <si>
     <t>Admn No:</t>
   </si>
@@ -11626,6 +11626,24 @@
   </si>
   <si>
     <t>CMRIT25__21r01a67f7</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>868</t>
   </si>
 </sst>
 </file>
@@ -11977,10 +11995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDF3820-1ED2-4581-9EEB-4A4152BC0E3A}">
-  <dimension ref="A1:F1133"/>
+  <dimension ref="A1:F1135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1108" workbookViewId="0">
-      <selection activeCell="B1135" sqref="B1135"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34653,6 +34671,26 @@
         <v>3600</v>
       </c>
     </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1135" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>3866</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>3867</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>3868</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>3869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lib/CMRIT2025Leaderboard.xlsx
+++ b/lib/CMRIT2025Leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabya\Downloads\sample leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE428EF-DFD3-44DB-9095-9C68FA6F2407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F6BD16-8737-4E7A-8000-F71E6354CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
+    <workbookView xWindow="390" yWindow="2530" windowWidth="19190" windowHeight="11170" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="3872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="3873">
   <si>
     <t>Admn No:</t>
   </si>
@@ -10968,9 +10968,6 @@
     <t>L.Premchand</t>
   </si>
   <si>
-    <t>21r01A67C1</t>
-  </si>
-  <si>
     <t>21r01a67j4nandakishore</t>
   </si>
   <si>
@@ -11367,9 +11364,6 @@
     <t>L.Prem Chand</t>
   </si>
   <si>
-    <t>PashaC1</t>
-  </si>
-  <si>
     <t>s21r01a0415</t>
   </si>
   <si>
@@ -11650,6 +11644,15 @@
   </si>
   <si>
     <t>869</t>
+  </si>
+  <si>
+    <t>21r01ae3yc</t>
+  </si>
+  <si>
+    <t>21r01awf3x</t>
+  </si>
+  <si>
+    <t>r01a67c1</t>
   </si>
 </sst>
 </file>
@@ -12382,19 +12385,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C19" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="D19" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="E19" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="F19" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -12574,7 +12577,7 @@
         <v>2499</v>
       </c>
       <c r="F28" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -12585,7 +12588,7 @@
         <v>3600</v>
       </c>
       <c r="C29" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="D29" t="s">
         <v>3600</v>
@@ -13445,7 +13448,7 @@
         <v>1180</v>
       </c>
       <c r="C72" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="D72" t="s">
         <v>71</v>
@@ -14165,7 +14168,7 @@
         <v>3602</v>
       </c>
       <c r="C108" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="D108" t="s">
         <v>3602</v>
@@ -14205,13 +14208,13 @@
         <v>3597</v>
       </c>
       <c r="C110" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
       <c r="D110" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="E110" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
       <c r="F110" t="s">
         <v>3078</v>
@@ -14631,7 +14634,7 @@
         <v>3603</v>
       </c>
       <c r="E131" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="F131" t="s">
         <v>3603</v>
@@ -14691,7 +14694,7 @@
         <v>1223</v>
       </c>
       <c r="E134" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="F134" t="s">
         <v>133</v>
@@ -15062,7 +15065,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="C153" t="s">
         <v>1776</v>
@@ -15574,7 +15577,7 @@
         <v>2610</v>
       </c>
       <c r="F178" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -15782,7 +15785,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="C189" t="s">
         <v>1799</v>
@@ -16282,10 +16285,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
       <c r="C214" t="s">
-        <v>3842</v>
+        <v>3840</v>
       </c>
       <c r="D214" t="s">
         <v>2638</v>
@@ -16294,7 +16297,7 @@
         <v>2638</v>
       </c>
       <c r="F214" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -16345,16 +16348,16 @@
         <v>3597</v>
       </c>
       <c r="C217" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="D217" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="E217" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="F217" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -16945,7 +16948,7 @@
         <v>1309</v>
       </c>
       <c r="C247" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="D247" t="s">
         <v>1309</v>
@@ -17045,7 +17048,7 @@
         <v>1313</v>
       </c>
       <c r="C252" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="D252" t="s">
         <v>251</v>
@@ -17168,13 +17171,13 @@
         <v>1835</v>
       </c>
       <c r="D258" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="E258" t="s">
         <v>2671</v>
       </c>
       <c r="F258" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -17265,7 +17268,7 @@
         <v>2250</v>
       </c>
       <c r="C263" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="D263" t="s">
         <v>2250</v>
@@ -17314,7 +17317,7 @@
         <v>1323</v>
       </c>
       <c r="F265" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -17585,7 +17588,7 @@
         <v>1333</v>
       </c>
       <c r="C279" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="D279" t="s">
         <v>2257</v>
@@ -17725,7 +17728,7 @@
         <v>1338</v>
       </c>
       <c r="C286" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="D286" t="s">
         <v>2258</v>
@@ -18102,19 +18105,19 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C305" t="s">
         <v>3826</v>
       </c>
-      <c r="C305" t="s">
-        <v>3828</v>
-      </c>
       <c r="D305" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="E305" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
       <c r="F305" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
@@ -18231,7 +18234,7 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
       <c r="F311" t="s">
         <v>310</v>
@@ -18582,7 +18585,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>3870</v>
       </c>
       <c r="C329" t="s">
         <v>1876</v>
@@ -18725,13 +18728,13 @@
         <v>3610</v>
       </c>
       <c r="C336" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="D336" t="s">
         <v>3610</v>
       </c>
       <c r="E336" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="F336" t="s">
         <v>3610</v>
@@ -18865,16 +18868,16 @@
         <v>3611</v>
       </c>
       <c r="C343" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="D343" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="E343" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="F343" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
@@ -19388,10 +19391,10 @@
         <v>368</v>
       </c>
       <c r="D369" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="E369" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="F369" t="s">
         <v>368</v>
@@ -19565,13 +19568,13 @@
         <v>3613</v>
       </c>
       <c r="C378" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="D378" t="s">
         <v>3613</v>
       </c>
       <c r="E378" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="F378" t="s">
         <v>3613</v>
@@ -19865,16 +19868,16 @@
         <v>3614</v>
       </c>
       <c r="C393" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="D393" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="E393" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="F393" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
@@ -20031,7 +20034,7 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="F401" t="s">
         <v>3157</v>
@@ -20128,10 +20131,10 @@
         <v>1912</v>
       </c>
       <c r="D406" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="E406" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="F406" t="s">
         <v>3159</v>
@@ -20265,16 +20268,16 @@
         <v>3597</v>
       </c>
       <c r="C413" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="D413" t="s">
         <v>3597</v>
       </c>
       <c r="E413" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="F413" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
@@ -20388,10 +20391,10 @@
         <v>1919</v>
       </c>
       <c r="D419" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="E419" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="F419" t="s">
         <v>1919</v>
@@ -20614,7 +20617,7 @@
         <v>1421</v>
       </c>
       <c r="F430" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
@@ -20645,16 +20648,16 @@
         <v>3619</v>
       </c>
       <c r="C432" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="D432" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="E432" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="F432" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
@@ -20865,16 +20868,16 @@
         <v>3620</v>
       </c>
       <c r="C443" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="D443" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="E443" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="F443" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
@@ -20891,7 +20894,7 @@
         <v>1429</v>
       </c>
       <c r="E444" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="F444" t="s">
         <v>1429</v>
@@ -20908,7 +20911,7 @@
         <v>1430</v>
       </c>
       <c r="D445" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="E445" t="s">
         <v>2769</v>
@@ -20925,7 +20928,7 @@
         <v>3622</v>
       </c>
       <c r="C446" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="D446" t="s">
         <v>3622</v>
@@ -20988,7 +20991,7 @@
         <v>2773</v>
       </c>
       <c r="D449" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="E449" t="s">
         <v>2773</v>
@@ -21011,7 +21014,7 @@
         <v>2311</v>
       </c>
       <c r="E450" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="F450" t="s">
         <v>449</v>
@@ -21285,7 +21288,7 @@
         <v>1438</v>
       </c>
       <c r="C464" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="D464" t="s">
         <v>1438</v>
@@ -21505,7 +21508,7 @@
         <v>3597</v>
       </c>
       <c r="C475" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="D475" t="s">
         <v>3597</v>
@@ -21725,7 +21728,7 @@
         <v>3597</v>
       </c>
       <c r="C486" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="D486" t="s">
         <v>2795</v>
@@ -21905,7 +21908,7 @@
         <v>494</v>
       </c>
       <c r="C495" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="D495" t="s">
         <v>494</v>
@@ -22228,7 +22231,7 @@
         <v>510</v>
       </c>
       <c r="D511" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="E511" t="s">
         <v>2810</v>
@@ -22665,7 +22668,7 @@
         <v>1478</v>
       </c>
       <c r="C533" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="D533" t="s">
         <v>1478</v>
@@ -22802,7 +22805,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="C540" t="s">
         <v>1984</v>
@@ -22825,7 +22828,7 @@
         <v>3418</v>
       </c>
       <c r="C541" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="D541" t="s">
         <v>3579</v>
@@ -22834,7 +22837,7 @@
         <v>3508</v>
       </c>
       <c r="F541" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.35">
@@ -22945,7 +22948,7 @@
         <v>1487</v>
       </c>
       <c r="C547" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="D547" t="s">
         <v>2342</v>
@@ -23065,7 +23068,7 @@
         <v>1492</v>
       </c>
       <c r="C553" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="D553" t="s">
         <v>1492</v>
@@ -23208,7 +23211,7 @@
         <v>559</v>
       </c>
       <c r="D560" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="E560" t="s">
         <v>2845</v>
@@ -23454,7 +23457,7 @@
         <v>3510</v>
       </c>
       <c r="F572" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.35">
@@ -23525,16 +23528,16 @@
         <v>1508</v>
       </c>
       <c r="C576" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="D576" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="E576" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="F576" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.35">
@@ -23662,19 +23665,19 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C583" t="s">
         <v>3864</v>
       </c>
-      <c r="C583" t="s">
-        <v>3866</v>
-      </c>
       <c r="D583" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="E583" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
       <c r="F583" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
@@ -23845,13 +23848,13 @@
         <v>3597</v>
       </c>
       <c r="C592" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
       <c r="D592" t="s">
         <v>3597</v>
       </c>
       <c r="E592" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="F592" t="s">
         <v>2004</v>
@@ -24122,7 +24125,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
       <c r="C606" t="s">
         <v>2010</v>
@@ -24205,7 +24208,7 @@
         <v>1525</v>
       </c>
       <c r="C610" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="D610" t="s">
         <v>2364</v>
@@ -24325,16 +24328,16 @@
         <v>3631</v>
       </c>
       <c r="C616" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="D616" t="s">
         <v>3302</v>
       </c>
       <c r="E616" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="F616" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.35">
@@ -24348,7 +24351,7 @@
         <v>616</v>
       </c>
       <c r="D617" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="E617" t="s">
         <v>3511</v>
@@ -24385,7 +24388,7 @@
         <v>1530</v>
       </c>
       <c r="C619" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="D619" t="s">
         <v>2367</v>
@@ -24394,7 +24397,7 @@
         <v>2367</v>
       </c>
       <c r="F619" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.35">
@@ -24465,7 +24468,7 @@
         <v>1532</v>
       </c>
       <c r="C623" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="D623" t="s">
         <v>1532</v>
@@ -24565,13 +24568,13 @@
         <v>3632</v>
       </c>
       <c r="C628" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="D628" t="s">
         <v>3632</v>
       </c>
       <c r="E628" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="F628" t="s">
         <v>3597</v>
@@ -24614,7 +24617,7 @@
         <v>2880</v>
       </c>
       <c r="F630" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.35">
@@ -24705,13 +24708,13 @@
         <v>3597</v>
       </c>
       <c r="C635" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="D635" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="E635" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
       <c r="F635" t="s">
         <v>3597</v>
@@ -24985,13 +24988,13 @@
         <v>3633</v>
       </c>
       <c r="C649" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="D649" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="E649" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="F649" t="s">
         <v>648</v>
@@ -25142,19 +25145,19 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C657" t="s">
         <v>3827</v>
       </c>
-      <c r="C657" t="s">
-        <v>3829</v>
-      </c>
       <c r="D657" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="E657" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="F657" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.35">
@@ -25245,7 +25248,7 @@
         <v>3597</v>
       </c>
       <c r="C662" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="D662" t="s">
         <v>3487</v>
@@ -25265,7 +25268,7 @@
         <v>3634</v>
       </c>
       <c r="C663" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="D663" t="s">
         <v>662</v>
@@ -25345,13 +25348,13 @@
         <v>666</v>
       </c>
       <c r="C667" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="D667" t="s">
         <v>2382</v>
       </c>
       <c r="E667" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="F667" t="s">
         <v>666</v>
@@ -25371,7 +25374,7 @@
         <v>2033</v>
       </c>
       <c r="E668" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="F668" t="s">
         <v>2033</v>
@@ -25408,10 +25411,10 @@
         <v>2035</v>
       </c>
       <c r="D670" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="E670" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="F670" t="s">
         <v>3635</v>
@@ -25445,13 +25448,13 @@
         <v>3636</v>
       </c>
       <c r="C672" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="D672" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="E672" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="F672" t="s">
         <v>3636</v>
@@ -25625,7 +25628,7 @@
         <v>1551</v>
       </c>
       <c r="C681" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="D681" t="s">
         <v>680</v>
@@ -25694,7 +25697,7 @@
         <v>3376</v>
       </c>
       <c r="F684" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.35">
@@ -25811,7 +25814,7 @@
         <v>3580</v>
       </c>
       <c r="E690" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="F690" t="s">
         <v>689</v>
@@ -25851,7 +25854,7 @@
         <v>3581</v>
       </c>
       <c r="E692" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="F692" t="s">
         <v>3209</v>
@@ -26042,19 +26045,19 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="C702" t="s">
-        <v>3844</v>
+        <v>3842</v>
       </c>
       <c r="D702" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
       <c r="E702" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
       <c r="F702" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.35">
@@ -26202,7 +26205,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
       <c r="C710" t="s">
         <v>3597</v>
@@ -26222,7 +26225,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
       <c r="C711" t="s">
         <v>2056</v>
@@ -26231,7 +26234,7 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="F711" t="s">
         <v>710</v>
@@ -26405,7 +26408,7 @@
         <v>1566</v>
       </c>
       <c r="C720" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="D720" t="s">
         <v>2397</v>
@@ -26505,16 +26508,16 @@
         <v>3640</v>
       </c>
       <c r="C725" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="D725" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="E725" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="F725" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.35">
@@ -26645,13 +26648,13 @@
         <v>3597</v>
       </c>
       <c r="C732" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="D732" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="E732" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="F732" t="s">
         <v>3597</v>
@@ -26745,7 +26748,7 @@
         <v>3597</v>
       </c>
       <c r="C737" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="D737" t="s">
         <v>3597</v>
@@ -26754,7 +26757,7 @@
         <v>3597</v>
       </c>
       <c r="F737" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.35">
@@ -26805,13 +26808,13 @@
         <v>3641</v>
       </c>
       <c r="C740" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="D740" t="s">
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="F740" t="s">
         <v>3222</v>
@@ -26845,7 +26848,7 @@
         <v>3597</v>
       </c>
       <c r="C742" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="D742" t="s">
         <v>3597</v>
@@ -27005,7 +27008,7 @@
         <v>1580</v>
       </c>
       <c r="C750" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="D750" t="s">
         <v>2408</v>
@@ -27188,10 +27191,10 @@
         <v>2080</v>
       </c>
       <c r="D759" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="E759" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="F759" t="s">
         <v>1585</v>
@@ -27585,7 +27588,7 @@
         <v>3597</v>
       </c>
       <c r="C779" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="D779" t="s">
         <v>3597</v>
@@ -27811,7 +27814,7 @@
         <v>3643</v>
       </c>
       <c r="E790" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="F790" t="s">
         <v>3643</v>
@@ -27894,7 +27897,7 @@
         <v>3383</v>
       </c>
       <c r="F794" t="s">
-        <v>3836</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.35">
@@ -27902,19 +27905,19 @@
         <v>794</v>
       </c>
       <c r="B795" t="s">
-        <v>3644</v>
+        <v>3871</v>
       </c>
       <c r="C795" t="s">
         <v>2092</v>
       </c>
       <c r="D795" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="E795" t="s">
-        <v>3777</v>
+        <v>3872</v>
       </c>
       <c r="F795" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.35">
@@ -27982,7 +27985,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="C799" t="s">
         <v>2094</v>
@@ -28028,7 +28031,7 @@
         <v>2095</v>
       </c>
       <c r="D801" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="E801" t="s">
         <v>2955</v>
@@ -28102,7 +28105,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="C805" t="s">
         <v>3574</v>
@@ -28122,19 +28125,19 @@
         <v>805</v>
       </c>
       <c r="B806" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="C806" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="D806" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="E806" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="F806" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.35">
@@ -28162,19 +28165,19 @@
         <v>807</v>
       </c>
       <c r="B808" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="C808" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="D808" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="E808" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
       <c r="F808" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.35">
@@ -28242,7 +28245,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="C812" t="s">
         <v>2098</v>
@@ -28302,7 +28305,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="C815" t="s">
         <v>814</v>
@@ -28311,7 +28314,7 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
       <c r="F815" t="s">
         <v>814</v>
@@ -28345,7 +28348,7 @@
         <v>816</v>
       </c>
       <c r="C817" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="D817" t="s">
         <v>816</v>
@@ -28534,7 +28537,7 @@
         <v>3597</v>
       </c>
       <c r="F826" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.35">
@@ -28545,13 +28548,13 @@
         <v>3597</v>
       </c>
       <c r="C827" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="D827" t="s">
         <v>3597</v>
       </c>
       <c r="E827" t="s">
-        <v>3781</v>
+        <v>3779</v>
       </c>
       <c r="F827" t="s">
         <v>3597</v>
@@ -28605,7 +28608,7 @@
         <v>2968</v>
       </c>
       <c r="C830" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="D830" t="s">
         <v>3240</v>
@@ -28765,13 +28768,13 @@
         <v>1619</v>
       </c>
       <c r="C838" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="D838" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="E838" t="s">
-        <v>3782</v>
+        <v>3780</v>
       </c>
       <c r="F838" t="s">
         <v>3243</v>
@@ -28925,7 +28928,7 @@
         <v>1624</v>
       </c>
       <c r="C846" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
       <c r="D846" t="s">
         <v>845</v>
@@ -29102,19 +29105,19 @@
         <v>854</v>
       </c>
       <c r="B855" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="C855" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="D855" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="E855" t="s">
-        <v>3783</v>
+        <v>3781</v>
       </c>
       <c r="F855" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.35">
@@ -29528,7 +29531,7 @@
         <v>3470</v>
       </c>
       <c r="D876" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="E876" t="s">
         <v>3387</v>
@@ -29594,7 +29597,7 @@
         <v>2992</v>
       </c>
       <c r="F879" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.35">
@@ -29768,13 +29771,13 @@
         <v>887</v>
       </c>
       <c r="D888" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="E888" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
       <c r="F888" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.35">
@@ -29862,13 +29865,13 @@
         <v>892</v>
       </c>
       <c r="B893" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="C893" t="s">
         <v>2122</v>
       </c>
       <c r="D893" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E893" t="s">
         <v>2996</v>
@@ -30042,19 +30045,19 @@
         <v>901</v>
       </c>
       <c r="B902" t="s">
-        <v>3838</v>
+        <v>3836</v>
       </c>
       <c r="C902" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="D902" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
       <c r="E902" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
       <c r="F902" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.35">
@@ -30194,7 +30197,7 @@
         <v>3003</v>
       </c>
       <c r="F909" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.35">
@@ -30222,16 +30225,16 @@
         <v>910</v>
       </c>
       <c r="B911" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="C911" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="D911" t="s">
         <v>910</v>
       </c>
       <c r="E911" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="F911" t="s">
         <v>910</v>
@@ -30442,7 +30445,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="C922" t="s">
         <v>3576</v>
@@ -30454,7 +30457,7 @@
         <v>3591</v>
       </c>
       <c r="F922" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.35">
@@ -30465,13 +30468,13 @@
         <v>3597</v>
       </c>
       <c r="C923" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="D923" t="s">
         <v>3597</v>
       </c>
       <c r="E923" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="F923" t="s">
         <v>3260</v>
@@ -30482,19 +30485,19 @@
         <v>923</v>
       </c>
       <c r="B924" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="C924" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="D924" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="E924" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="F924" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.35">
@@ -30605,13 +30608,13 @@
         <v>3597</v>
       </c>
       <c r="C930" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="D930" t="s">
         <v>929</v>
       </c>
       <c r="E930" t="s">
-        <v>3787</v>
+        <v>3785</v>
       </c>
       <c r="F930" t="s">
         <v>929</v>
@@ -30682,19 +30685,19 @@
         <v>933</v>
       </c>
       <c r="B934" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="C934" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="D934" t="s">
         <v>933</v>
       </c>
       <c r="E934" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="F934" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.35">
@@ -30791,7 +30794,7 @@
         <v>3264</v>
       </c>
       <c r="E939" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
       <c r="F939" t="s">
         <v>3264</v>
@@ -30842,7 +30845,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="C942" t="s">
         <v>3339</v>
@@ -30851,10 +30854,10 @@
         <v>941</v>
       </c>
       <c r="E942" t="s">
-        <v>3790</v>
+        <v>3788</v>
       </c>
       <c r="F942" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.35">
@@ -31062,19 +31065,19 @@
         <v>952</v>
       </c>
       <c r="B953" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C953" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="D953" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E953" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
       <c r="F953" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.35">
@@ -31122,19 +31125,19 @@
         <v>955</v>
       </c>
       <c r="B956" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="C956" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="D956" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="E956" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
       <c r="F956" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.35">
@@ -31362,16 +31365,16 @@
         <v>967</v>
       </c>
       <c r="B968" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
       <c r="C968" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
       <c r="D968" t="s">
         <v>967</v>
       </c>
       <c r="E968" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="F968" t="s">
         <v>3270</v>
@@ -31402,10 +31405,10 @@
         <v>969</v>
       </c>
       <c r="B970" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="C970" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
       <c r="D970" t="s">
         <v>3305</v>
@@ -31428,13 +31431,13 @@
         <v>3433</v>
       </c>
       <c r="D971" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="E971" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="F971" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.35">
@@ -31585,13 +31588,13 @@
         <v>3597</v>
       </c>
       <c r="C979" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="D979" t="s">
         <v>3597</v>
       </c>
       <c r="E979" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
       <c r="F979" t="s">
         <v>3597</v>
@@ -31962,13 +31965,13 @@
         <v>997</v>
       </c>
       <c r="B998" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="C998" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="D998" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="E998" t="s">
         <v>3597</v>
@@ -33462,19 +33465,19 @@
         <v>1072</v>
       </c>
       <c r="B1073" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
       <c r="C1073" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
       <c r="D1073" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
       <c r="E1073" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
       <c r="F1073" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.35">
@@ -33768,7 +33771,7 @@
         <v>2156</v>
       </c>
       <c r="D1088" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="E1088" t="s">
         <v>2156</v>
@@ -34679,22 +34682,22 @@
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1135" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>3866</v>
+      </c>
+      <c r="E1135" t="s">
         <v>3859</v>
       </c>
-      <c r="B1135" t="s">
-        <v>3865</v>
-      </c>
-      <c r="C1135" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D1135" t="s">
-        <v>3868</v>
-      </c>
-      <c r="E1135" t="s">
-        <v>3861</v>
-      </c>
       <c r="F1135" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
     </row>
   </sheetData>

--- a/lib/CMRIT2025Leaderboard.xlsx
+++ b/lib/CMRIT2025Leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabya\Downloads\sample leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E8B54-A6BD-40DC-A4A9-19B491CBA8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA8311-7F60-4C69-BFBD-C19FD0918049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6430" yWindow="7200" windowWidth="19190" windowHeight="11170" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
+    <workbookView xWindow="140" yWindow="4790" windowWidth="19190" windowHeight="11170" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="3985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="3989">
   <si>
     <t>Admn No:</t>
   </si>
@@ -11862,9 +11862,6 @@
     <t>CMRIT25_21R01A05F0</t>
   </si>
   <si>
-    <t>CMRIT25_21R01A05K6</t>
-  </si>
-  <si>
     <t>cmrit25_21r01a66b4</t>
   </si>
   <si>
@@ -11937,9 +11934,6 @@
     <t>21r01axld6</t>
   </si>
   <si>
-    <t>832</t>
-  </si>
-  <si>
     <t>21R01A05D5_cmrit</t>
   </si>
   <si>
@@ -11949,18 +11943,12 @@
     <t>cmrit25_21r01a67c9</t>
   </si>
   <si>
-    <t>814</t>
-  </si>
-  <si>
     <t>vasundhara676</t>
   </si>
   <si>
     <t>KARTHIKL8</t>
   </si>
   <si>
-    <t>849</t>
-  </si>
-  <si>
     <t>metharitejas</t>
   </si>
   <si>
@@ -11979,16 +11967,40 @@
     <t>vamshi_52</t>
   </si>
   <si>
-    <t>896</t>
-  </si>
-  <si>
     <t>21r01a67e5@cmritonline.ac.in</t>
   </si>
   <si>
     <t>21r01a04q0</t>
   </si>
   <si>
-    <t>898</t>
+    <t>21r01ajhg4</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>CMRIT25_21R01A05K5</t>
+  </si>
+  <si>
+    <t>21r01a6674</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>subodh_994</t>
+  </si>
+  <si>
+    <t>bindumalika</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>899</t>
   </si>
 </sst>
 </file>
@@ -14247,7 +14259,7 @@
         <v>1730</v>
       </c>
       <c r="D95" t="s">
-        <v>3972</v>
+        <v>3969</v>
       </c>
       <c r="E95" t="s">
         <v>2519</v>
@@ -15101,10 +15113,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="C138" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
       <c r="D138" t="s">
         <v>137</v>
@@ -15570,7 +15582,7 @@
         <v>3041</v>
       </c>
       <c r="E161" t="s">
-        <v>3975</v>
+        <v>3971</v>
       </c>
       <c r="F161" t="s">
         <v>3041</v>
@@ -15710,7 +15722,7 @@
         <v>2198</v>
       </c>
       <c r="E168" t="s">
-        <v>3976</v>
+        <v>3972</v>
       </c>
       <c r="F168" t="s">
         <v>2198</v>
@@ -15950,7 +15962,7 @@
         <v>3296</v>
       </c>
       <c r="E180" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="F180" t="s">
         <v>3335</v>
@@ -16004,7 +16016,7 @@
         <v>1254</v>
       </c>
       <c r="C183" t="s">
-        <v>3532</v>
+        <v>3981</v>
       </c>
       <c r="D183" t="s">
         <v>2203</v>
@@ -16024,7 +16036,7 @@
         <v>1255</v>
       </c>
       <c r="C184" t="s">
-        <v>3942</v>
+        <v>3532</v>
       </c>
       <c r="D184" t="s">
         <v>1255</v>
@@ -16950,7 +16962,7 @@
         <v>1292</v>
       </c>
       <c r="E230" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="F230" t="s">
         <v>1292</v>
@@ -17350,7 +17362,7 @@
         <v>2221</v>
       </c>
       <c r="E250" t="s">
-        <v>2221</v>
+        <v>3985</v>
       </c>
       <c r="F250" t="s">
         <v>3062</v>
@@ -18341,19 +18353,19 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>3532</v>
+        <v>3979</v>
       </c>
       <c r="C300" t="s">
-        <v>3532</v>
+        <v>3982</v>
       </c>
       <c r="D300" t="s">
-        <v>3532</v>
+        <v>3982</v>
       </c>
       <c r="E300" t="s">
-        <v>3532</v>
+        <v>3986</v>
       </c>
       <c r="F300" t="s">
-        <v>3532</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
@@ -18421,19 +18433,19 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="C304" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="D304" t="s">
         <v>3532</v>
       </c>
       <c r="E304" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="F304" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
@@ -18570,7 +18582,7 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>3977</v>
+        <v>3973</v>
       </c>
       <c r="F311" t="s">
         <v>310</v>
@@ -18704,7 +18716,7 @@
         <v>3851</v>
       </c>
       <c r="C318" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="D318" t="s">
         <v>3851</v>
@@ -19004,13 +19016,13 @@
         <v>3937</v>
       </c>
       <c r="C333" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="D333" t="s">
         <v>3937</v>
       </c>
       <c r="E333" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="F333" t="s">
         <v>3937</v>
@@ -20810,7 +20822,7 @@
         <v>3532</v>
       </c>
       <c r="E423" t="s">
-        <v>3978</v>
+        <v>3974</v>
       </c>
       <c r="F423" t="s">
         <v>3109</v>
@@ -21593,7 +21605,7 @@
         <v>2741</v>
       </c>
       <c r="F462" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
@@ -23167,7 +23179,7 @@
         <v>3614</v>
       </c>
       <c r="D541" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="E541" t="s">
         <v>3444</v>
@@ -23181,7 +23193,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="C542" t="s">
         <v>1969</v>
@@ -23193,7 +23205,7 @@
         <v>3532</v>
       </c>
       <c r="F542" t="s">
-        <v>3982</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
@@ -24581,7 +24593,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="C612" t="s">
         <v>1519</v>
@@ -24630,7 +24642,7 @@
         <v>3846</v>
       </c>
       <c r="E614" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="F614" t="s">
         <v>3868</v>
@@ -26207,7 +26219,7 @@
         <v>692</v>
       </c>
       <c r="D693" t="s">
-        <v>3973</v>
+        <v>3970</v>
       </c>
       <c r="E693" t="s">
         <v>3933</v>
@@ -26307,10 +26319,10 @@
         <v>3532</v>
       </c>
       <c r="D698" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="E698" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="F698" t="s">
         <v>697</v>
@@ -26744,13 +26756,13 @@
         <v>1557</v>
       </c>
       <c r="C720" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="D720" t="s">
         <v>2369</v>
       </c>
       <c r="E720" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="F720" t="s">
         <v>3163</v>
@@ -26761,7 +26773,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="C721" t="s">
         <v>2045</v>
@@ -28064,7 +28076,7 @@
         <v>1588</v>
       </c>
       <c r="C786" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="D786" t="s">
         <v>1588</v>
@@ -28604,13 +28616,13 @@
         <v>3532</v>
       </c>
       <c r="C813" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="D813" t="s">
         <v>3532</v>
       </c>
       <c r="E813" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="F813" t="s">
         <v>812</v>
@@ -29933,7 +29945,7 @@
         <v>2946</v>
       </c>
       <c r="F879" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.35">
@@ -30170,10 +30182,10 @@
         <v>3938</v>
       </c>
       <c r="E891" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="F891" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.35">
@@ -31153,7 +31165,7 @@
         <v>2963</v>
       </c>
       <c r="F940" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.35">
@@ -31881,10 +31893,10 @@
         <v>976</v>
       </c>
       <c r="B977" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="C977" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="D977" t="s">
         <v>976</v>
@@ -31893,7 +31905,7 @@
         <v>3532</v>
       </c>
       <c r="F977" t="s">
-        <v>3983</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.35">
@@ -32344,13 +32356,13 @@
         <v>3940</v>
       </c>
       <c r="C1000" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="D1000" t="s">
         <v>3940</v>
       </c>
       <c r="E1000" t="s">
-        <v>3979</v>
+        <v>3975</v>
       </c>
       <c r="F1000" t="s">
         <v>3940</v>
@@ -34390,7 +34402,7 @@
         <v>3532</v>
       </c>
       <c r="E1102" t="s">
-        <v>3980</v>
+        <v>3976</v>
       </c>
       <c r="F1102" t="s">
         <v>3532</v>
@@ -35021,19 +35033,19 @@
         <v>3784</v>
       </c>
       <c r="B1135" t="s">
-        <v>3967</v>
+        <v>3980</v>
       </c>
       <c r="C1135" t="s">
-        <v>3971</v>
+        <v>3983</v>
       </c>
       <c r="D1135" t="s">
-        <v>3974</v>
+        <v>3984</v>
       </c>
       <c r="E1135" t="s">
-        <v>3981</v>
+        <v>3987</v>
       </c>
       <c r="F1135" t="s">
-        <v>3984</v>
+        <v>3988</v>
       </c>
     </row>
   </sheetData>

--- a/lib/CMRIT2025Leaderboard.xlsx
+++ b/lib/CMRIT2025Leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabya\Downloads\sample leaderboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C592B-0404-4513-9DB0-67B62D12E076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401DAF1-5B2A-4A54-80BB-9421280AAF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6350" yWindow="3880" windowWidth="19190" windowHeight="11170" xr2:uid="{AB5297C7-CEE9-4FE4-B803-0A47C2167058}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="4007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6798" uniqueCount="4001">
   <si>
     <t>Admn No:</t>
   </si>
@@ -11340,9 +11340,6 @@
     <t>CMRIT25__21r01a67f7</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>kalavalanavangd94</t>
   </si>
   <si>
@@ -11946,9 +11943,6 @@
     <t>21r01a04l0</t>
   </si>
   <si>
-    <t>840</t>
-  </si>
-  <si>
     <t>21r01a0584@cmritonline.ac.in</t>
   </si>
   <si>
@@ -11988,9 +11982,6 @@
     <t>suraj_129</t>
   </si>
   <si>
-    <t>824</t>
-  </si>
-  <si>
     <t>jatin0</t>
   </si>
   <si>
@@ -12003,9 +11994,6 @@
     <t>prashanthbanoth1</t>
   </si>
   <si>
-    <t>858</t>
-  </si>
-  <si>
     <t>21R01A0584@cmritonline.ac.in</t>
   </si>
   <si>
@@ -12024,9 +12012,6 @@
     <t>cmr_21r01a05p7</t>
   </si>
   <si>
-    <t>901</t>
-  </si>
-  <si>
     <t>@22r05a05251</t>
   </si>
   <si>
@@ -12052,9 +12037,6 @@
   </si>
   <si>
     <t>21r01a66g7</t>
-  </si>
-  <si>
-    <t>904</t>
   </si>
 </sst>
 </file>
@@ -12406,10 +12388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDF3820-1ED2-4581-9EEB-4A4152BC0E3A}">
-  <dimension ref="A1:F1135"/>
+  <dimension ref="A1:F1133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048575"/>
+    <sheetView tabSelected="1" topLeftCell="A1115" workbookViewId="0">
+      <selection activeCell="A1135" sqref="A1135:XFD1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13190,13 +13172,13 @@
         <v>1694</v>
       </c>
       <c r="C39" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="D39" t="s">
         <v>1694</v>
       </c>
       <c r="E39" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="F39" t="s">
         <v>1694</v>
@@ -13270,13 +13252,13 @@
         <v>3519</v>
       </c>
       <c r="C43" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="D43" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="E43" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="F43" t="s">
         <v>3002</v>
@@ -13687,19 +13669,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="C64" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="D64" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="E64" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="F64" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -13750,7 +13732,7 @@
         <v>1175</v>
       </c>
       <c r="C67" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="D67" t="s">
         <v>1175</v>
@@ -13987,7 +13969,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="C79" t="s">
         <v>1718</v>
@@ -14270,7 +14252,7 @@
         <v>1196</v>
       </c>
       <c r="C93" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="D93" t="s">
         <v>1196</v>
@@ -14313,7 +14295,7 @@
         <v>1726</v>
       </c>
       <c r="D95" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="E95" t="s">
         <v>2510</v>
@@ -14530,13 +14512,13 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="D106" t="s">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>3990</v>
+        <v>3986</v>
       </c>
       <c r="F106" t="s">
         <v>3015</v>
@@ -14747,7 +14729,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="C117" t="s">
         <v>2174</v>
@@ -14756,7 +14738,7 @@
         <v>2174</v>
       </c>
       <c r="E117" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="F117" t="s">
         <v>2174</v>
@@ -14787,7 +14769,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="C119" t="s">
         <v>1738</v>
@@ -14910,13 +14892,13 @@
         <v>3339</v>
       </c>
       <c r="C125" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="D125" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="E125" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="F125" t="s">
         <v>124</v>
@@ -15096,7 +15078,7 @@
         <v>1219</v>
       </c>
       <c r="E134" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="F134" t="s">
         <v>133</v>
@@ -15127,10 +15109,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="C136" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="D136" t="s">
         <v>135</v>
@@ -15167,10 +15149,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C138" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="D138" t="s">
         <v>137</v>
@@ -15390,7 +15372,7 @@
         <v>3527</v>
       </c>
       <c r="C149" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="D149" t="s">
         <v>2184</v>
@@ -15467,7 +15449,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="C153" t="s">
         <v>1758</v>
@@ -15636,7 +15618,7 @@
         <v>3029</v>
       </c>
       <c r="E161" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="F161" t="s">
         <v>3029</v>
@@ -15776,7 +15758,7 @@
         <v>2190</v>
       </c>
       <c r="E168" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="F168" t="s">
         <v>2190</v>
@@ -16016,7 +15998,7 @@
         <v>3283</v>
       </c>
       <c r="E180" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="F180" t="s">
         <v>3322</v>
@@ -16070,7 +16052,7 @@
         <v>1253</v>
       </c>
       <c r="C183" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="D183" t="s">
         <v>2195</v>
@@ -16090,7 +16072,7 @@
         <v>1254</v>
       </c>
       <c r="C184" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="D184" t="s">
         <v>1254</v>
@@ -16170,7 +16152,7 @@
         <v>1258</v>
       </c>
       <c r="C188" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="D188" t="s">
         <v>1258</v>
@@ -16196,7 +16178,7 @@
         <v>2197</v>
       </c>
       <c r="E189" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="F189" t="s">
         <v>3037</v>
@@ -16450,7 +16432,7 @@
         <v>1270</v>
       </c>
       <c r="C202" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="D202" t="s">
         <v>1270</v>
@@ -16610,7 +16592,7 @@
         <v>1277</v>
       </c>
       <c r="C210" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="D210" t="s">
         <v>209</v>
@@ -16776,7 +16758,7 @@
         <v>1796</v>
       </c>
       <c r="E218" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="F218" t="s">
         <v>1796</v>
@@ -17016,7 +16998,7 @@
         <v>1291</v>
       </c>
       <c r="E230" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="F230" t="s">
         <v>1291</v>
@@ -17107,7 +17089,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="C235" t="s">
         <v>1295</v>
@@ -17210,7 +17192,7 @@
         <v>1299</v>
       </c>
       <c r="C240" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="D240" t="s">
         <v>1299</v>
@@ -17219,7 +17201,7 @@
         <v>2609</v>
       </c>
       <c r="F240" t="s">
-        <v>3997</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -17327,7 +17309,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C246" t="s">
         <v>1811</v>
@@ -17390,10 +17372,10 @@
         <v>1304</v>
       </c>
       <c r="C249" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="D249" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="E249" t="s">
         <v>2616</v>
@@ -17416,7 +17398,7 @@
         <v>2213</v>
       </c>
       <c r="E250" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="F250" t="s">
         <v>3050</v>
@@ -17510,13 +17492,13 @@
         <v>2215</v>
       </c>
       <c r="C255" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="D255" t="s">
         <v>2215</v>
       </c>
       <c r="E255" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="F255" t="s">
         <v>3051</v>
@@ -17587,19 +17569,19 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="C259" t="s">
         <v>3519</v>
       </c>
       <c r="D259" t="s">
-        <v>3985</v>
+        <v>3982</v>
       </c>
       <c r="E259" t="s">
-        <v>3991</v>
+        <v>3987</v>
       </c>
       <c r="F259" t="s">
-        <v>3998</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
@@ -17687,19 +17669,19 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="C264" t="s">
         <v>3519</v>
       </c>
       <c r="D264" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="E264" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="F264" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -17719,7 +17701,7 @@
         <v>1316</v>
       </c>
       <c r="F265" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -17796,7 +17778,7 @@
         <v>2221</v>
       </c>
       <c r="E269" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="F269" t="s">
         <v>2221</v>
@@ -17836,7 +17818,7 @@
         <v>2223</v>
       </c>
       <c r="E271" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="F271" t="s">
         <v>1321</v>
@@ -17867,7 +17849,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="C273" t="s">
         <v>2224</v>
@@ -17890,7 +17872,7 @@
         <v>3519</v>
       </c>
       <c r="C274" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="D274" t="s">
         <v>273</v>
@@ -17899,7 +17881,7 @@
         <v>2630</v>
       </c>
       <c r="F274" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
@@ -18007,19 +17989,19 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="C280" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="D280" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="E280" t="s">
         <v>2634</v>
       </c>
       <c r="F280" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
@@ -18336,7 +18318,7 @@
         <v>3062</v>
       </c>
       <c r="E296" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="F296" t="s">
         <v>3062</v>
@@ -18407,19 +18389,19 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="C300" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="D300" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="E300" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="F300" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
@@ -18487,19 +18469,19 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C304" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="D304" t="s">
         <v>3519</v>
       </c>
       <c r="E304" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="F304" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
@@ -18636,7 +18618,7 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="F311" t="s">
         <v>310</v>
@@ -18767,19 +18749,19 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="C318" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="D318" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="E318" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="F318" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
@@ -18787,19 +18769,19 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C319" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="D319" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="E319" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="F319" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
@@ -18987,7 +18969,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="C329" t="s">
         <v>1857</v>
@@ -19067,19 +19049,19 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="C333" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="D333" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="E333" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="F333" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
@@ -19107,7 +19089,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="C335" t="s">
         <v>1861</v>
@@ -19116,7 +19098,7 @@
         <v>2246</v>
       </c>
       <c r="E335" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="F335" t="s">
         <v>334</v>
@@ -19287,13 +19269,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="C344" t="s">
         <v>1867</v>
       </c>
       <c r="D344" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="E344" t="s">
         <v>1368</v>
@@ -19590,7 +19572,7 @@
         <v>1378</v>
       </c>
       <c r="C359" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="D359" t="s">
         <v>2257</v>
@@ -19947,7 +19929,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="C377" t="s">
         <v>1881</v>
@@ -19990,7 +19972,7 @@
         <v>1386</v>
       </c>
       <c r="C379" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="D379" t="s">
         <v>1386</v>
@@ -20096,10 +20078,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="F384" t="s">
-        <v>3999</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
@@ -20130,7 +20112,7 @@
         <v>1391</v>
       </c>
       <c r="C386" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="D386" t="s">
         <v>2690</v>
@@ -20139,7 +20121,7 @@
         <v>2690</v>
       </c>
       <c r="F386" t="s">
-        <v>4000</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
@@ -20587,19 +20569,19 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="C409" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="D409" t="s">
-        <v>3986</v>
+        <v>3983</v>
       </c>
       <c r="E409" t="s">
         <v>3519</v>
       </c>
       <c r="F409" t="s">
-        <v>4001</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
@@ -20690,7 +20672,7 @@
         <v>3539</v>
       </c>
       <c r="C414" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="D414" t="s">
         <v>2273</v>
@@ -20710,7 +20692,7 @@
         <v>1405</v>
       </c>
       <c r="C415" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="D415" t="s">
         <v>414</v>
@@ -20733,7 +20715,7 @@
         <v>1897</v>
       </c>
       <c r="D416" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="E416" t="s">
         <v>2706</v>
@@ -20767,19 +20749,19 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="C418" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="D418" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="E418" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="F418" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
@@ -20830,16 +20812,16 @@
         <v>3519</v>
       </c>
       <c r="C421" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="D421" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="E421" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="F421" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
@@ -20850,16 +20832,16 @@
         <v>3519</v>
       </c>
       <c r="C422" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="D422" t="s">
         <v>3519</v>
       </c>
       <c r="E422" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="F422" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
@@ -20876,7 +20858,7 @@
         <v>3519</v>
       </c>
       <c r="E423" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="F423" t="s">
         <v>3096</v>
@@ -20970,7 +20952,7 @@
         <v>1409</v>
       </c>
       <c r="C428" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
       <c r="D428" t="s">
         <v>2275</v>
@@ -21030,13 +21012,13 @@
         <v>3099</v>
       </c>
       <c r="C431" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="D431" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="E431" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="F431" t="s">
         <v>3099</v>
@@ -21187,19 +21169,19 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="C439" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="D439" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="E439" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="F439" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
@@ -21427,13 +21409,13 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="C451" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="D451" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="E451" t="s">
         <v>2725</v>
@@ -21659,7 +21641,7 @@
         <v>2732</v>
       </c>
       <c r="F462" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
@@ -21870,7 +21852,7 @@
         <v>3519</v>
       </c>
       <c r="C473" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="D473" t="s">
         <v>3519</v>
@@ -21970,7 +21952,7 @@
         <v>1436</v>
       </c>
       <c r="C478" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="D478" t="s">
         <v>477</v>
@@ -22427,16 +22409,16 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="C501" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="D501" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="E501" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="F501" t="s">
         <v>500</v>
@@ -22807,7 +22789,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="C520" t="s">
         <v>1947</v>
@@ -23150,7 +23132,7 @@
         <v>3519</v>
       </c>
       <c r="C537" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="D537" t="s">
         <v>3519</v>
@@ -23207,7 +23189,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="C540" t="s">
         <v>1960</v>
@@ -23233,7 +23215,7 @@
         <v>3601</v>
       </c>
       <c r="D541" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="E541" t="s">
         <v>3431</v>
@@ -23247,7 +23229,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C542" t="s">
         <v>1961</v>
@@ -23259,7 +23241,7 @@
         <v>3519</v>
       </c>
       <c r="F542" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
@@ -23436,10 +23418,10 @@
         <v>3349</v>
       </c>
       <c r="E551" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="F551" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
@@ -23676,7 +23658,7 @@
         <v>3226</v>
       </c>
       <c r="E563" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="F563" t="s">
         <v>3226</v>
@@ -23716,7 +23698,7 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="F565" t="s">
         <v>1489</v>
@@ -24067,19 +24049,19 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C583" t="s">
         <v>3771</v>
       </c>
-      <c r="C583" t="s">
+      <c r="D583" t="s">
         <v>3772</v>
       </c>
-      <c r="D583" t="s">
-        <v>3773</v>
-      </c>
       <c r="E583" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="F583" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.35">
@@ -24110,7 +24092,7 @@
         <v>3494</v>
       </c>
       <c r="C585" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="D585" t="s">
         <v>3494</v>
@@ -24227,19 +24209,19 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="C591" t="s">
         <v>3519</v>
       </c>
       <c r="D591" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="E591" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="F591" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.35">
@@ -24287,16 +24269,16 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="C594" t="s">
         <v>3382</v>
       </c>
       <c r="D594" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="E594" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="F594" t="s">
         <v>593</v>
@@ -24596,7 +24578,7 @@
         <v>2329</v>
       </c>
       <c r="E609" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="F609" t="s">
         <v>608</v>
@@ -24647,7 +24629,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="C612" t="s">
         <v>1515</v>
@@ -24687,19 +24669,19 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="C614" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="D614" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="E614" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="F614" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.35">
@@ -25047,19 +25029,19 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="C632" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="D632" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="E632" t="s">
         <v>3519</v>
       </c>
       <c r="F632" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.35">
@@ -25367,19 +25349,19 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="C648" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="D648" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="E648" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F648" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.35">
@@ -25407,19 +25389,19 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="C650" t="s">
         <v>3519</v>
       </c>
       <c r="D650" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="E650" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="F650" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.35">
@@ -25427,19 +25409,19 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="C651" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="D651" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="E651" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="F651" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.35">
@@ -25610,13 +25592,13 @@
         <v>659</v>
       </c>
       <c r="C660" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="D660" t="s">
-        <v>3987</v>
+        <v>3984</v>
       </c>
       <c r="E660" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="F660" t="s">
         <v>3135</v>
@@ -26267,19 +26249,19 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="C693" t="s">
         <v>692</v>
       </c>
       <c r="D693" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="E693" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="F693" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.35">
@@ -26373,10 +26355,10 @@
         <v>3519</v>
       </c>
       <c r="D698" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="E698" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="F698" t="s">
         <v>697</v>
@@ -26387,16 +26369,16 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="C699" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="D699" t="s">
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="F699" t="s">
         <v>3144</v>
@@ -26433,10 +26415,10 @@
         <v>700</v>
       </c>
       <c r="D701" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="E701" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="F701" t="s">
         <v>700</v>
@@ -26470,7 +26452,7 @@
         <v>3472</v>
       </c>
       <c r="C703" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="D703" t="s">
         <v>3290</v>
@@ -26610,7 +26592,7 @@
         <v>3733</v>
       </c>
       <c r="C710" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="D710" t="s">
         <v>709</v>
@@ -26810,13 +26792,13 @@
         <v>1553</v>
       </c>
       <c r="C720" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="D720" t="s">
         <v>2360</v>
       </c>
       <c r="E720" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="F720" t="s">
         <v>3150</v>
@@ -26827,7 +26809,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="C721" t="s">
         <v>2037</v>
@@ -27296,7 +27278,7 @@
         <v>2369</v>
       </c>
       <c r="E744" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="F744" t="s">
         <v>2369</v>
@@ -27350,7 +27332,7 @@
         <v>3519</v>
       </c>
       <c r="C747" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="D747" t="s">
         <v>3519</v>
@@ -27527,19 +27509,19 @@
         <v>755</v>
       </c>
       <c r="B756" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="C756" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="D756" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="E756" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="F756" t="s">
-        <v>4002</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.35">
@@ -28107,19 +28089,19 @@
         <v>784</v>
       </c>
       <c r="B785" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="C785" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="D785" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="E785" t="s">
         <v>2892</v>
       </c>
       <c r="F785" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.35">
@@ -28130,7 +28112,7 @@
         <v>1584</v>
       </c>
       <c r="C786" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="D786" t="s">
         <v>1584</v>
@@ -28307,7 +28289,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="C795" t="s">
         <v>2068</v>
@@ -28316,7 +28298,7 @@
         <v>3654</v>
       </c>
       <c r="E795" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="F795" t="s">
         <v>3721</v>
@@ -28407,19 +28389,19 @@
         <v>799</v>
       </c>
       <c r="B800" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="C800" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="D800" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="E800" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="F800" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.35">
@@ -28670,13 +28652,13 @@
         <v>3519</v>
       </c>
       <c r="C813" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="D813" t="s">
         <v>3519</v>
       </c>
       <c r="E813" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="F813" t="s">
         <v>812</v>
@@ -28756,7 +28738,7 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="F817" t="s">
         <v>3623</v>
@@ -28887,7 +28869,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="C824" t="s">
         <v>3264</v>
@@ -28996,7 +28978,7 @@
         <v>3416</v>
       </c>
       <c r="E829" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="F829" t="s">
         <v>828</v>
@@ -29476,10 +29458,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>3992</v>
+        <v>3988</v>
       </c>
       <c r="F853" t="s">
-        <v>4003</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.35">
@@ -29590,7 +29572,7 @@
         <v>1615</v>
       </c>
       <c r="C859" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="D859" t="s">
         <v>3519</v>
@@ -29627,7 +29609,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="C861" t="s">
         <v>2090</v>
@@ -29636,7 +29618,7 @@
         <v>2090</v>
       </c>
       <c r="E861" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="F861" t="s">
         <v>2090</v>
@@ -29970,7 +29952,7 @@
         <v>1619</v>
       </c>
       <c r="C878" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="D878" t="s">
         <v>877</v>
@@ -29999,7 +29981,7 @@
         <v>2936</v>
       </c>
       <c r="F879" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.35">
@@ -30110,13 +30092,13 @@
         <v>3519</v>
       </c>
       <c r="C885" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="D885" t="s">
         <v>2407</v>
       </c>
       <c r="E885" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="F885" t="s">
         <v>884</v>
@@ -30227,19 +30209,19 @@
         <v>890</v>
       </c>
       <c r="B891" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="C891" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="D891" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="E891" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="F891" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.35">
@@ -30247,16 +30229,16 @@
         <v>891</v>
       </c>
       <c r="B892" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="C892" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="D892" t="s">
-        <v>3988</v>
+        <v>3985</v>
       </c>
       <c r="E892" t="s">
-        <v>3993</v>
+        <v>3989</v>
       </c>
       <c r="F892" t="s">
         <v>891</v>
@@ -30296,10 +30278,10 @@
         <v>2098</v>
       </c>
       <c r="E894" t="s">
-        <v>3994</v>
+        <v>3990</v>
       </c>
       <c r="F894" t="s">
-        <v>4004</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.35">
@@ -30376,7 +30358,7 @@
         <v>1628</v>
       </c>
       <c r="E898" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="F898" t="s">
         <v>1628</v>
@@ -30450,7 +30432,7 @@
         <v>3747</v>
       </c>
       <c r="C902" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="D902" t="s">
         <v>3757</v>
@@ -30836,7 +30818,7 @@
         <v>3269</v>
       </c>
       <c r="E921" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="F921" t="s">
         <v>3269</v>
@@ -31219,7 +31201,7 @@
         <v>2952</v>
       </c>
       <c r="F940" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.35">
@@ -31256,7 +31238,7 @@
         <v>941</v>
       </c>
       <c r="E942" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="F942" t="s">
         <v>3730</v>
@@ -31327,7 +31309,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="C946" t="s">
         <v>2111</v>
@@ -31476,10 +31458,10 @@
         <v>3576</v>
       </c>
       <c r="E953" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="F953" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.35">
@@ -31830,13 +31812,13 @@
         <v>3660</v>
       </c>
       <c r="C971" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="D971" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="E971" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="F971" t="s">
         <v>3660</v>
@@ -31947,10 +31929,10 @@
         <v>976</v>
       </c>
       <c r="B977" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="C977" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="D977" t="s">
         <v>976</v>
@@ -31959,7 +31941,7 @@
         <v>3519</v>
       </c>
       <c r="F977" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.35">
@@ -31970,7 +31952,7 @@
         <v>3519</v>
       </c>
       <c r="C978" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="D978" t="s">
         <v>3519</v>
@@ -32010,16 +31992,16 @@
         <v>3519</v>
       </c>
       <c r="C980" t="s">
+        <v>3860</v>
+      </c>
+      <c r="D980" t="s">
         <v>3861</v>
       </c>
-      <c r="D980" t="s">
-        <v>3862</v>
-      </c>
       <c r="E980" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="F980" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.35">
@@ -32036,7 +32018,7 @@
         <v>3204</v>
       </c>
       <c r="E981" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="F981" t="s">
         <v>3204</v>
@@ -32136,7 +32118,7 @@
         <v>1650</v>
       </c>
       <c r="E986" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="F986" t="s">
         <v>1650</v>
@@ -32407,19 +32389,19 @@
         <v>999</v>
       </c>
       <c r="B1000" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="C1000" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="D1000" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="E1000" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="F1000" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.35">
@@ -32667,7 +32649,7 @@
         <v>1012</v>
       </c>
       <c r="B1013" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="C1013" t="s">
         <v>3400</v>
@@ -33207,16 +33189,16 @@
         <v>1039</v>
       </c>
       <c r="B1040" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="C1040" t="s">
         <v>2124</v>
       </c>
       <c r="D1040" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="E1040" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="F1040" t="s">
         <v>3213</v>
@@ -33330,16 +33312,16 @@
         <v>3519</v>
       </c>
       <c r="C1046" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="D1046" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="E1046" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="F1046" t="s">
-        <v>4005</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.35">
@@ -33367,7 +33349,7 @@
         <v>1047</v>
       </c>
       <c r="B1048" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="C1048" t="s">
         <v>2127</v>
@@ -33376,7 +33358,7 @@
         <v>1666</v>
       </c>
       <c r="E1048" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="F1048" t="s">
         <v>1666</v>
@@ -34456,7 +34438,7 @@
         <v>3519</v>
       </c>
       <c r="E1102" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="F1102" t="s">
         <v>3519</v>
@@ -35080,26 +35062,6 @@
       </c>
       <c r="F1133" t="s">
         <v>3519</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1135" t="s">
-        <v>3768</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>3970</v>
-      </c>
-      <c r="C1135" t="s">
-        <v>3984</v>
-      </c>
-      <c r="D1135" t="s">
-        <v>3989</v>
-      </c>
-      <c r="E1135" t="s">
-        <v>3996</v>
-      </c>
-      <c r="F1135" t="s">
-        <v>4006</v>
       </c>
     </row>
   </sheetData>
